--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/85.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/85.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3311877463025929</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.31302467231436</v>
+        <v>-1.320762927196176</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1707706488728484</v>
+        <v>-0.1654458534853043</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1339146549140401</v>
+        <v>-0.1280000000977689</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3677067019130048</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.386432970229067</v>
+        <v>-1.389078577369794</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2391432409220118</v>
+        <v>-0.2333570703377406</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1361602088778577</v>
+        <v>-0.1332240521670403</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3966062882254729</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491432328686767</v>
+        <v>-1.49238574009013</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2840864412563634</v>
+        <v>-0.2801209506414554</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1410353094534018</v>
+        <v>-0.1380524312036753</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.391746029248865</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.648959837311088</v>
+        <v>-1.643658402692998</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2918787179175431</v>
+        <v>-0.2914845049329978</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1503358157924902</v>
+        <v>-0.1487034820268543</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3557873615526422</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.744103871155153</v>
+        <v>-1.737949768451973</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2910873718522706</v>
+        <v>-0.2901602413145436</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1654473135333953</v>
+        <v>-0.1675089014377583</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3048361858215005</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.58491920794765</v>
+        <v>-1.578570918848379</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2239456003437432</v>
+        <v>-0.2229951090365616</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1697310946321214</v>
+        <v>-0.1751288924242108</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.256143827830308</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.422799848077421</v>
+        <v>-1.42119087508124</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.149891961172854</v>
+        <v>-0.1459469112312187</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1514031109469445</v>
+        <v>-0.1538705922205802</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2147899343325105</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.153375713813948</v>
+        <v>-1.151398808698858</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.009084923285619054</v>
+        <v>-0.003487098905075104</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1270699494638601</v>
+        <v>-0.1318501469134952</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1779578689809235</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7803640875966846</v>
+        <v>-0.7815569468869571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07698783176963056</v>
+        <v>0.08290540668208352</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1141514439554999</v>
+        <v>-0.1185914501999533</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1387522456060811</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4007472038161503</v>
+        <v>-0.4084153763896027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1152746728575294</v>
+        <v>0.1274354134067079</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07137057484378415</v>
+        <v>-0.07446733684460149</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09401647672386504</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07131846503263209</v>
+        <v>0.05931102953299894</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1290881878456166</v>
+        <v>0.1407043304568862</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0288062447696435</v>
+        <v>0.02718121124446212</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.04006050509175887</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6125947935347594</v>
+        <v>0.5988966223458541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04708604686782041</v>
+        <v>0.06099738507799849</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1833304344709656</v>
+        <v>0.177519443069149</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.02627709645906552</v>
       </c>
       <c r="E14" t="n">
-        <v>1.178037838037608</v>
+        <v>1.162337940916066</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09767626129768618</v>
+        <v>-0.08676824201050728</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3126936154216582</v>
+        <v>0.306235822715569</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1063593000004376</v>
       </c>
       <c r="E15" t="n">
-        <v>1.824215701775343</v>
+        <v>1.809993373321802</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2623010636919147</v>
+        <v>-0.256555774454189</v>
       </c>
       <c r="G15" t="n">
-        <v>0.493688477011155</v>
+        <v>0.4877548415697021</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.203324519141102</v>
       </c>
       <c r="E16" t="n">
-        <v>2.456663273266174</v>
+        <v>2.436516069659724</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4991544451433966</v>
+        <v>-0.4939406134107616</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6135102436877592</v>
+        <v>0.6049003400956706</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3190559192362713</v>
       </c>
       <c r="E17" t="n">
-        <v>3.069249810576372</v>
+        <v>3.047163663105197</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6364456872277233</v>
+        <v>-0.6278606044531801</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7992707022459821</v>
+        <v>0.7914273239016205</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4495281641357139</v>
       </c>
       <c r="E18" t="n">
-        <v>3.67487629863721</v>
+        <v>3.645954206004399</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7601073803834174</v>
+        <v>-0.7508039539481471</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9390338057482173</v>
+        <v>0.9343674920496731</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5849687533733213</v>
       </c>
       <c r="E19" t="n">
-        <v>4.208996931445793</v>
+        <v>4.180238364199165</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9178261553076478</v>
+        <v>-0.9092337722926501</v>
       </c>
       <c r="G19" t="n">
-        <v>1.092499460583631</v>
+        <v>1.086578965574996</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7181324673839219</v>
       </c>
       <c r="E20" t="n">
-        <v>4.753492665988375</v>
+        <v>4.723623002144564</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.133736606943135</v>
+        <v>-1.123560071749502</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25127677037377</v>
+        <v>1.245970955611408</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8419253858312814</v>
       </c>
       <c r="E21" t="n">
-        <v>5.216520637154432</v>
+        <v>5.182825647312441</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.291794113024456</v>
+        <v>-1.279918081853005</v>
       </c>
       <c r="G21" t="n">
-        <v>1.428475506926904</v>
+        <v>1.421944711816269</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9483541128977556</v>
       </c>
       <c r="E22" t="n">
-        <v>5.620076469433505</v>
+        <v>5.588032793982332</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.497620012496037</v>
+        <v>-1.487352954320768</v>
       </c>
       <c r="G22" t="n">
-        <v>1.542646887491692</v>
+        <v>1.538279883651784</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.032636256807746</v>
       </c>
       <c r="E23" t="n">
-        <v>5.895132009183614</v>
+        <v>5.859068821338169</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.680127483907716</v>
+        <v>-1.666499395027174</v>
       </c>
       <c r="G23" t="n">
-        <v>1.705410128570011</v>
+        <v>1.698736248746468</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.091162168280902</v>
       </c>
       <c r="E24" t="n">
-        <v>6.19841465867526</v>
+        <v>6.164677327438632</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.850831926552488</v>
+        <v>-1.839614377070037</v>
       </c>
       <c r="G24" t="n">
-        <v>1.816346042565345</v>
+        <v>1.81363765335671</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.12567841032853</v>
       </c>
       <c r="E25" t="n">
-        <v>6.408668884006567</v>
+        <v>6.378688256507847</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.98686168708627</v>
+        <v>-1.975371838634864</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916676167228318</v>
+        <v>1.916860133287773</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.139245543266348</v>
       </c>
       <c r="E26" t="n">
-        <v>6.506262878547177</v>
+        <v>6.478757032562548</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.090942675294787</v>
+        <v>-2.082834298221926</v>
       </c>
       <c r="G26" t="n">
-        <v>1.981470181406665</v>
+        <v>1.981017566498483</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.135317561982937</v>
       </c>
       <c r="E27" t="n">
-        <v>6.560236476323799</v>
+        <v>6.532472201827079</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.178538260508855</v>
+        <v>-2.171049673850584</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062894143340461</v>
+        <v>2.063554085077552</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.116245854036815</v>
       </c>
       <c r="E28" t="n">
-        <v>6.669995591557861</v>
+        <v>6.64382130943214</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.235842958004885</v>
+        <v>-2.231111672166295</v>
       </c>
       <c r="G28" t="n">
-        <v>2.094431182104089</v>
+        <v>2.093454409931271</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.084849471967318</v>
       </c>
       <c r="E29" t="n">
-        <v>6.606778429317695</v>
+        <v>6.581499156671702</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.296358301252823</v>
+        <v>-2.292024878519006</v>
       </c>
       <c r="G29" t="n">
-        <v>2.137739128576623</v>
+        <v>2.140348234515077</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.0441619694635</v>
       </c>
       <c r="E30" t="n">
-        <v>6.576679537923613</v>
+        <v>6.546577726433348</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.329924806862814</v>
+        <v>-2.327893149944315</v>
       </c>
       <c r="G30" t="n">
-        <v>2.121912207271172</v>
+        <v>2.125087811868899</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9971224939154079</v>
       </c>
       <c r="E31" t="n">
-        <v>6.486923081535</v>
+        <v>6.45801704943119</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310896000094001</v>
+        <v>-2.30995499909941</v>
       </c>
       <c r="G31" t="n">
-        <v>2.102344642756814</v>
+        <v>2.108638910076722</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9462512601106076</v>
       </c>
       <c r="E32" t="n">
-        <v>6.30928049036223</v>
+        <v>6.283811411464418</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317544329075954</v>
+        <v>-2.315594434850545</v>
       </c>
       <c r="G32" t="n">
-        <v>2.042168760690012</v>
+        <v>2.045223181296193</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.893647513425477</v>
       </c>
       <c r="E33" t="n">
-        <v>6.129385044985187</v>
+        <v>6.098646652527286</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.336150451922449</v>
+        <v>-2.339304885822857</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979088842970393</v>
+        <v>1.979160385326847</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8406421634800609</v>
       </c>
       <c r="E34" t="n">
-        <v>5.887421495215525</v>
+        <v>5.860753716835077</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.38532706169639</v>
+        <v>-2.381105332641527</v>
       </c>
       <c r="G34" t="n">
-        <v>1.893595727007234</v>
+        <v>1.896245714292233</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7876413066804457</v>
       </c>
       <c r="E35" t="n">
-        <v>5.663474938887676</v>
+        <v>5.635655182563502</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.37200704296303</v>
+        <v>-2.369101547262122</v>
       </c>
       <c r="G35" t="n">
-        <v>1.825398340728979</v>
+        <v>1.828198712967342</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7355105467281526</v>
       </c>
       <c r="E36" t="n">
-        <v>5.473210231968999</v>
+        <v>5.446470911232097</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.336663658826403</v>
+        <v>-2.329792672510587</v>
       </c>
       <c r="G36" t="n">
-        <v>1.736233203817185</v>
+        <v>1.740693650734911</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6839579110788585</v>
       </c>
       <c r="E37" t="n">
-        <v>5.108891732085007</v>
+        <v>5.085319255657286</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.274710898232965</v>
+        <v>-2.270706716343648</v>
       </c>
       <c r="G37" t="n">
-        <v>1.650829150787572</v>
+        <v>1.652553467582935</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6332100431057337</v>
       </c>
       <c r="E38" t="n">
-        <v>4.839504099023806</v>
+        <v>4.809679696670814</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.172390728022084</v>
+        <v>-2.164741536073813</v>
       </c>
       <c r="G38" t="n">
-        <v>1.555039775687325</v>
+        <v>1.551236350410507</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5829390059327781</v>
       </c>
       <c r="E39" t="n">
-        <v>4.545405152023976</v>
+        <v>4.515456645583257</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.155237353026043</v>
+        <v>-2.146619419169454</v>
       </c>
       <c r="G39" t="n">
-        <v>1.443838132939445</v>
+        <v>1.439176199385174</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5328614928768123</v>
       </c>
       <c r="E40" t="n">
-        <v>4.274496148852049</v>
+        <v>4.247691125951056</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.126502146548868</v>
+        <v>-2.117951374904462</v>
       </c>
       <c r="G40" t="n">
-        <v>1.38404186337628</v>
+        <v>1.384599601747007</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4828337169495341</v>
       </c>
       <c r="E41" t="n">
-        <v>3.976275486091584</v>
+        <v>3.954371844631771</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.036590195038575</v>
+        <v>-2.028217549261259</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263687179146494</v>
+        <v>1.26392224688913</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4323832121130655</v>
       </c>
       <c r="E42" t="n">
-        <v>3.718642700210289</v>
+        <v>3.700939617108021</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.941798032784418</v>
+        <v>-1.93379842929433</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158790024055158</v>
+        <v>1.158917048239067</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3818476086794587</v>
       </c>
       <c r="E43" t="n">
-        <v>3.449969030665543</v>
+        <v>3.429770725375912</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.874740214041118</v>
+        <v>-1.865836840782757</v>
       </c>
       <c r="G43" t="n">
-        <v>1.06609887100382</v>
+        <v>1.065577633835365</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3311384139155483</v>
       </c>
       <c r="E44" t="n">
-        <v>3.182295494063069</v>
+        <v>3.161308762804348</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.833807035788447</v>
+        <v>-1.825905255520449</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9338228941117641</v>
+        <v>0.9314254951464921</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2802631155143681</v>
       </c>
       <c r="E45" t="n">
-        <v>2.923161778744321</v>
+        <v>2.903492010863599</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.74834093071497</v>
+        <v>-1.743678997160699</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8113905614486152</v>
+        <v>0.8117730940484332</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2293263459542779</v>
       </c>
       <c r="E46" t="n">
-        <v>2.672578105045933</v>
+        <v>2.655682428537938</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.698182438599893</v>
+        <v>-1.696044928194802</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7712961808241714</v>
+        <v>0.7705573964901716</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.178765426162321</v>
       </c>
       <c r="E47" t="n">
-        <v>2.372488580729105</v>
+        <v>2.355394337680746</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.651298834352724</v>
+        <v>-1.649218265823179</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6628832299299278</v>
+        <v>0.6640045468637457</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.130375352625843</v>
       </c>
       <c r="E48" t="n">
-        <v>2.179008847914248</v>
+        <v>2.164368945706706</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.617152689650642</v>
+        <v>-1.614790331839552</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6004544936588536</v>
+        <v>0.6016590333338533</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0844646438214053</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982687861514483</v>
+        <v>1.966593751408396</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.567178163595019</v>
+        <v>-1.56681023147611</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5386448177783247</v>
+        <v>0.5406509238552333</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04122636132126105</v>
       </c>
       <c r="E50" t="n">
-        <v>1.868706287201513</v>
+        <v>1.855618416114607</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.492845655238766</v>
+        <v>-1.494035594432857</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4772395752189776</v>
+        <v>0.4794150468744316</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.0002841113359524724</v>
       </c>
       <c r="E51" t="n">
-        <v>1.691085596750106</v>
+        <v>1.678142270424201</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433469879525782</v>
+        <v>-1.437436830188781</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4197151404852658</v>
+        <v>0.4211065663159018</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04077327545222289</v>
       </c>
       <c r="E52" t="n">
-        <v>1.572680076721684</v>
+        <v>1.559822893233141</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.392610433701702</v>
+        <v>-1.398072473609792</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3386883116321966</v>
+        <v>0.340202381502469</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08056060626642746</v>
       </c>
       <c r="E53" t="n">
-        <v>1.392240033406732</v>
+        <v>1.383507485775007</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.355450749739985</v>
+        <v>-1.359946237811893</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2727539998948507</v>
+        <v>0.2730722903786688</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1203387536265943</v>
       </c>
       <c r="E54" t="n">
-        <v>1.343896381068654</v>
+        <v>1.329676972711294</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.335897785706536</v>
+        <v>-1.341094096862079</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2173845961433201</v>
+        <v>0.2227093915308642</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1598285110386794</v>
       </c>
       <c r="E55" t="n">
-        <v>1.218840341986142</v>
+        <v>1.208198051451509</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.300881452342272</v>
+        <v>-1.304465870405453</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1663807361836065</v>
+        <v>0.1643001676540617</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1991927252415333</v>
       </c>
       <c r="E56" t="n">
-        <v>1.189509435887877</v>
+        <v>1.177567702552335</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.246450859513196</v>
+        <v>-1.252234110001285</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1073115705697133</v>
+        <v>0.103398641686078</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2390370028891427</v>
       </c>
       <c r="E57" t="n">
-        <v>1.099627415363447</v>
+        <v>1.085923403982178</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.239953645508652</v>
+        <v>-1.243218313039924</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06496141564481561</v>
+        <v>0.05970232242136247</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2792096679186161</v>
       </c>
       <c r="E58" t="n">
-        <v>1.046861277358007</v>
+        <v>1.031834462406374</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.201685785045935</v>
+        <v>-1.205473149793752</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01236273124970908</v>
+        <v>-0.01742471798088954</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3202477825362282</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9376540603023086</v>
+        <v>0.9236083976677668</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.116172228409504</v>
+        <v>-1.122012420773138</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08815674774496146</v>
+        <v>-0.09392539775214173</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3612492857719656</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9184865489648592</v>
+        <v>0.8976429024190465</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.098174215592872</v>
+        <v>-1.102513478519053</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1139105360205</v>
+        <v>-0.1211961759941344</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4015148555176539</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7852717611503495</v>
+        <v>0.7650690757164458</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.06728981832588</v>
+        <v>-1.073337337518424</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1421580864353106</v>
+        <v>-0.1507767503159446</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4400246175888542</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7456475160111783</v>
+        <v>0.7260551306792744</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.062024884910064</v>
+        <v>-1.068212568719335</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2187843303423809</v>
+        <v>-0.2248960916509248</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4752094468837796</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6558530983722024</v>
+        <v>0.6348415462959354</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.097017857504872</v>
+        <v>-1.102530999096144</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2330373198058316</v>
+        <v>-0.2402966789138297</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5063349916018494</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5716419046328614</v>
+        <v>0.5433038312364145</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.082372115104967</v>
+        <v>-1.088857648724784</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2814977759911823</v>
+        <v>-0.2916027688283614</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.532879871335462</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4886148098952473</v>
+        <v>0.4571507735361648</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.050870117495521</v>
+        <v>-1.056590585915701</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3130202142739011</v>
+        <v>-0.3249707078979888</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5553650231135786</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4389848551890788</v>
+        <v>0.4090290485079051</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.066875164668062</v>
+        <v>-1.071742965003152</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3421189727257115</v>
+        <v>-0.353256219563163</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5736106083892224</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4144151659152672</v>
+        <v>0.3789856389412767</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.08449794512533</v>
+        <v>-1.090447641095783</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3725668156135215</v>
+        <v>-0.3878768798947901</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5872304095878118</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3353272809269248</v>
+        <v>0.2992202916387527</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.100603735616144</v>
+        <v>-1.105217487583416</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3848706408756091</v>
+        <v>-0.3974825362848784</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5952887478918518</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2334524253837704</v>
+        <v>0.1940720082757809</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.142342130390951</v>
+        <v>-1.145990790570132</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4063041468501488</v>
+        <v>-0.4214375453124174</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5963308498594536</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1709813477180599</v>
+        <v>0.1309658096905252</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.190866828692302</v>
+        <v>-1.193881828000028</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.424290479282053</v>
+        <v>-0.4379506892205948</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5885050770296885</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1165536749851654</v>
+        <v>0.08160596388117478</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.280283093875732</v>
+        <v>-1.278814285496278</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4862330195388546</v>
+        <v>-0.4976243147441242</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5712557388597963</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03306520505082417</v>
+        <v>-0.005925379216892631</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.314892073822632</v>
+        <v>-1.315257085845359</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4808469021314924</v>
+        <v>-0.4918031030056713</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5450222766869951</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01910860534982792</v>
+        <v>-0.01935782165325266</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305273276999726</v>
+        <v>-1.305390080846998</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5305892805406608</v>
+        <v>-0.5418301907925669</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5120881041248116</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04789199341400201</v>
+        <v>0.0111163021001937</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.345823192628533</v>
+        <v>-1.345878674455987</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5185526440792095</v>
+        <v>-0.5263069594900256</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4751509438538735</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05457317347800022</v>
+        <v>0.01602206368564693</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396905895185155</v>
+        <v>-1.395432706661429</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4679824184024958</v>
+        <v>-0.4777296994574023</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4356618313282374</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1036556101500779</v>
+        <v>0.06819396211808747</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342707450002534</v>
+        <v>-1.341815360618988</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4784203022044021</v>
+        <v>-0.4883413289821267</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3950348191534278</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2170049836396839</v>
+        <v>0.1811739434406935</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.341594893357261</v>
+        <v>-1.33990561771608</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4245372274094166</v>
+        <v>-0.4338362737004141</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3540412211660535</v>
       </c>
       <c r="E78" t="n">
-        <v>0.298399744611662</v>
+        <v>0.2671634757547613</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307596213512361</v>
+        <v>-1.305641209118634</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4281231055206883</v>
+        <v>-0.4345619176015957</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3138797558096812</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3884876319169105</v>
+        <v>0.3600006336151909</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.316086393160995</v>
+        <v>-1.32324354890263</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3962794566579697</v>
+        <v>-0.4027533098930588</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2746830834725792</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4868101904548842</v>
+        <v>0.4639064160527994</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.335621836617354</v>
+        <v>-1.338029455919262</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3398558981848029</v>
+        <v>-0.3441557398125291</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2356901575312002</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5819878054050404</v>
+        <v>0.5635795190748636</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284639877379004</v>
+        <v>-1.285679431619731</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2888126169266348</v>
+        <v>-0.2925547201836338</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.196447399457134</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7135439785882778</v>
+        <v>0.7008620008706449</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.217041110818022</v>
+        <v>-1.221695744131839</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2562477043070072</v>
+        <v>-0.2592466430857337</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1573277247387807</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8663350912056913</v>
+        <v>0.8572054104932393</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.162741922317127</v>
+        <v>-1.164470619256763</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2134726753876551</v>
+        <v>-0.2160219193543817</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1198017833053874</v>
       </c>
       <c r="E84" t="n">
-        <v>1.033412774392646</v>
+        <v>1.027125807313194</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.071191066824788</v>
+        <v>-1.074115543150878</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1669044415281221</v>
+        <v>-0.1648486938161227</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08436134003148488</v>
       </c>
       <c r="E85" t="n">
-        <v>1.123031986260713</v>
+        <v>1.122694715151713</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.99763676410099</v>
+        <v>-1.004183619740625</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1318924883081315</v>
+        <v>-0.13090987594295</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05121115970428294</v>
       </c>
       <c r="E86" t="n">
-        <v>1.28415121318867</v>
+        <v>1.289205899679396</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9215361375066468</v>
+        <v>-0.9279793297318268</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04792950274424499</v>
+        <v>-0.04573797055979103</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.02054089960319753</v>
       </c>
       <c r="E87" t="n">
-        <v>1.38471786564237</v>
+        <v>1.386490364024733</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8211257101986738</v>
+        <v>-0.8279893962740356</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01809488005461663</v>
+        <v>-0.0162099579692535</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.005916939507165467</v>
       </c>
       <c r="E88" t="n">
-        <v>1.471367339693529</v>
+        <v>1.474024627218983</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6949994558655258</v>
+        <v>-0.6997986339403427</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03232350062064256</v>
+        <v>0.03520417550400542</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02583835806104755</v>
       </c>
       <c r="E89" t="n">
-        <v>1.56775825460723</v>
+        <v>1.571564599980229</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5612050289589253</v>
+        <v>-0.5686235333088324</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07922024530062996</v>
+        <v>0.08062189146790232</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03741175215542655</v>
       </c>
       <c r="E90" t="n">
-        <v>1.625615580305669</v>
+        <v>1.632597530276395</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4350305930387774</v>
+        <v>-0.4393304346665035</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09099845324999044</v>
+        <v>0.09411711597217141</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03906212812504013</v>
       </c>
       <c r="E91" t="n">
-        <v>1.66658890988084</v>
+        <v>1.677422466715383</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2727199668686392</v>
+        <v>-0.2803968997306371</v>
       </c>
       <c r="G91" t="n">
-        <v>0.104102384865896</v>
+        <v>0.1086664951980766</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03049015698368364</v>
       </c>
       <c r="E92" t="n">
-        <v>1.695902295402014</v>
+        <v>1.707156346086738</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1162276323407721</v>
+        <v>-0.1201084401664074</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1052748034828957</v>
+        <v>0.1039417795758961</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01338872023820591</v>
       </c>
       <c r="E93" t="n">
-        <v>1.691170279539379</v>
+        <v>1.703531046677012</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03918426659982253</v>
+        <v>0.03886597611600443</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1000595117021698</v>
+        <v>0.09972954083362445</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.007868339859750105</v>
       </c>
       <c r="E94" t="n">
-        <v>1.638450863072848</v>
+        <v>1.652147574213662</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1456173922827939</v>
+        <v>0.1495361613587929</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0610820678672712</v>
+        <v>0.06029656199436231</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02832705926537743</v>
       </c>
       <c r="E95" t="n">
-        <v>1.545604944923873</v>
+        <v>1.562721088693595</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2294051720757715</v>
+        <v>0.2346350643374064</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01251794826746605</v>
+        <v>0.0119047280692844</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04492547221056827</v>
       </c>
       <c r="E96" t="n">
-        <v>1.422822200718906</v>
+        <v>1.439236061356901</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3072987377257506</v>
+        <v>0.3141157022622033</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02572655142579641</v>
+        <v>-0.02863496722288653</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05662745766217735</v>
       </c>
       <c r="E97" t="n">
-        <v>1.267551926443129</v>
+        <v>1.284822835310488</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3587712731226458</v>
+        <v>0.3633120226853719</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04628986873815452</v>
+        <v>-0.04952971545188092</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0649926131264383</v>
       </c>
       <c r="E98" t="n">
-        <v>1.137416380052346</v>
+        <v>1.151488323552524</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3787023896116404</v>
+        <v>0.3824079916663667</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08266988701932657</v>
+        <v>-0.08690110638677997</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07124425613992208</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9867131362049317</v>
+        <v>0.9964414366346563</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3746843372654597</v>
+        <v>0.3775343511389135</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1235833546227701</v>
+        <v>-0.1272904167255873</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07991290574710379</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8813341652435964</v>
+        <v>0.8876109119864128</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3455724383808312</v>
+        <v>0.3467798981520127</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1373048865811301</v>
+        <v>-0.1420982244635833</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09077437862889842</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7430807514673607</v>
+        <v>0.7461088912079055</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3485363360053758</v>
+        <v>0.3477522901805579</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1307507307010409</v>
+        <v>-0.1342767468405854</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1102615344906182</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6276493494001191</v>
+        <v>0.6329697646433904</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3049276196261148</v>
+        <v>0.3049612007322057</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945037305905693</v>
+        <v>-0.194443868618842</v>
       </c>
     </row>
   </sheetData>
